--- a/Descriptive_ln_shrout_change.xlsx
+++ b/Descriptive_ln_shrout_change.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62dcadad501c6a2c/Desktop/UMich/FIN 427/FIN427/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_2B4D2D17D45CE05EE612EC3458245E3FA482BA71" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9440C079-1630-404C-95AF-3EDD43283516}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="stats"/>
+    <sheet name="stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -28,13 +34,28 @@
     <t>Min</t>
   </si>
   <si>
-    <t>12.5 p</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>87.5 p</t>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>12.5%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>87.5%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>99%</t>
   </si>
   <si>
     <t>Max</t>
@@ -46,9 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +80,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -77,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,71 +105,116 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F73A81F-3BE2-47CC-A316-E35BB64203E0}" name="Table1" displayName="Table1" ref="B3:N4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A52B5E9D-C023-4197-A64B-0A99A2A8D3B5}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{755C291D-5CA3-4E64-B856-9AA80B6343A0}" name="Mean"/>
+    <tableColumn id="3" xr3:uid="{244EFE51-B71C-4A0C-B0C1-2D4667BEC280}" name="Std Dev"/>
+    <tableColumn id="4" xr3:uid="{723DB9B1-8CA0-4C8D-BD00-7F38B0A7469D}" name="Min"/>
+    <tableColumn id="5" xr3:uid="{DCC31544-3518-40B1-87A7-9062B53EF2D2}" name="1%"/>
+    <tableColumn id="6" xr3:uid="{E2F01DDB-C7ED-44F2-AAD4-07C1DAE94B53}" name="5%"/>
+    <tableColumn id="7" xr3:uid="{31CAEE48-F0D9-4C78-B323-626BA17A5BB9}" name="12.5%" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2DF9ACFF-F2F9-476C-805F-3E59AA2D1676}" name="25%" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8FAB9138-7EBD-42C6-BC66-BE01D78ACB79}" name="50%" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{DE308582-D7D2-4F14-A1D5-7AD24C669C2D}" name="87.5%"/>
+    <tableColumn id="11" xr3:uid="{389A78EB-DB75-4A44-85C2-DCE8814816CB}" name="95%"/>
+    <tableColumn id="12" xr3:uid="{8D4D3BCF-5DB7-4BEC-A2CE-15E4D9607D1E}" name="99%"/>
+    <tableColumn id="13" xr3:uid="{77849C59-74BE-451D-ADE6-36BBD933C94C}" name="Max"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,10 +222,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -200,71 +263,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -288,53 +349,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -344,7 +406,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -353,7 +415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,7 +424,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -370,10 +432,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -402,7 +464,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -415,12 +477,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -438,79 +501,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.006521127543852606</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.126821176436768</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-8.477204183199873</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>6.5211275000000004E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.12682117640000001</v>
+      </c>
+      <c r="E4">
+        <v>-8.4772041831999996</v>
+      </c>
+      <c r="F4">
+        <v>-9.1807549299999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>-5.4436716E-3</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
-        <v>0.0025482176436673</v>
-      </c>
-      <c r="H2" s="5">
-        <v>9.056189692148925</v>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2.5482176E-3</v>
+      </c>
+      <c r="L4">
+        <v>3.7754741199999997E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.32277339230000002</v>
+      </c>
+      <c r="N4">
+        <v>9.0561896921000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Descriptive_ln_shrout_change.xlsx
+++ b/Descriptive_ln_shrout_change.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62dcadad501c6a2c/Desktop/UMich/FIN 427/FIN427/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_2B4D2D17D45CE05EE612EC3458245E3FA482BA71" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9440C079-1630-404C-95AF-3EDD43283516}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_2B4DC437115D60EE6303D4D448245E3FA482BA80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F74A78-1CE2-4692-B5CF-6D86ED55720E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,25 +120,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000000000"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.000000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.000000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -197,21 +237,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F73A81F-3BE2-47CC-A316-E35BB64203E0}" name="Table1" displayName="Table1" ref="B3:N4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1673545A-2A9E-4D05-A826-92B3787E4160}" name="Table1" displayName="Table1" ref="B2:N3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A52B5E9D-C023-4197-A64B-0A99A2A8D3B5}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{755C291D-5CA3-4E64-B856-9AA80B6343A0}" name="Mean"/>
-    <tableColumn id="3" xr3:uid="{244EFE51-B71C-4A0C-B0C1-2D4667BEC280}" name="Std Dev"/>
-    <tableColumn id="4" xr3:uid="{723DB9B1-8CA0-4C8D-BD00-7F38B0A7469D}" name="Min"/>
-    <tableColumn id="5" xr3:uid="{DCC31544-3518-40B1-87A7-9062B53EF2D2}" name="1%"/>
-    <tableColumn id="6" xr3:uid="{E2F01DDB-C7ED-44F2-AAD4-07C1DAE94B53}" name="5%"/>
-    <tableColumn id="7" xr3:uid="{31CAEE48-F0D9-4C78-B323-626BA17A5BB9}" name="12.5%" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2DF9ACFF-F2F9-476C-805F-3E59AA2D1676}" name="25%" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8FAB9138-7EBD-42C6-BC66-BE01D78ACB79}" name="50%" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{DE308582-D7D2-4F14-A1D5-7AD24C669C2D}" name="87.5%"/>
-    <tableColumn id="11" xr3:uid="{389A78EB-DB75-4A44-85C2-DCE8814816CB}" name="95%"/>
-    <tableColumn id="12" xr3:uid="{8D4D3BCF-5DB7-4BEC-A2CE-15E4D9607D1E}" name="99%"/>
-    <tableColumn id="13" xr3:uid="{77849C59-74BE-451D-ADE6-36BBD933C94C}" name="Max"/>
+    <tableColumn id="1" xr3:uid="{A9E7BDB3-77BB-41C7-8047-97B9C1E83A89}" name="Name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8A0811D8-D1B5-414D-B570-C56E3FCC4D60}" name="Mean" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A9B8B1DB-0598-402B-8E92-39F09CBF0BDF}" name="Std Dev" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DC79642F-B03D-465B-BDA6-F394756767A9}" name="Min" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{07F968E7-B1F1-42D3-A7E5-F3E5376453C7}" name="1%" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{78795AF6-63CB-4F6D-8296-980510FD2CE1}" name="5%" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A7CF0BEB-4E2B-45EB-9013-74309480FE6D}" name="12.5%" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1E6C4615-DF5A-418D-8D1B-156B0D5A1CE9}" name="25%" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{D3B29E95-ABC1-4393-8E48-8FD77CA3E214}" name="50%" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{19D82E00-29C9-46AE-801C-68EA9D0B2AA1}" name="87.5%" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{2E58FEC7-FF60-4D62-89AD-82E42A370665}" name="95%" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2886F874-5233-49D0-AC25-583004607849}" name="99%" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3BDB7131-621B-4A3D-BA06-8830B379BB5E}" name="Max" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,101 +542,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N4"/>
+  <dimension ref="B2:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="203" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5613741299999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1122248287</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.40540754289999997</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.149531734</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-2.0492670300000002E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-1.6643031E-3</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>6.5211275000000004E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.12682117640000001</v>
-      </c>
-      <c r="E4">
-        <v>-8.4772041831999996</v>
-      </c>
-      <c r="F4">
-        <v>-9.1807549299999999E-2</v>
-      </c>
-      <c r="G4">
-        <v>-5.4436716E-3</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2.5482176E-3</v>
-      </c>
-      <c r="L4">
-        <v>3.7754741199999997E-2</v>
-      </c>
-      <c r="M4">
-        <v>0.32277339230000002</v>
-      </c>
-      <c r="N4">
-        <v>9.0561896921000002</v>
+      <c r="K3" s="2">
+        <v>2.5317808000000001E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.8802444700000006E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.3794896217</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.3772055619000003</v>
       </c>
     </row>
   </sheetData>
